--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Documents/Schule/Diplomarbeit/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09F18D-98DE-8743-BD10-752D9F670ED8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43612744-2A4A-4B63-A541-B8F474C6DD98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -115,6 +115,54 @@
   </si>
   <si>
     <t>Daten-Kapitel</t>
+  </si>
+  <si>
+    <t>IMP…Implementierung</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Datenbank-Erstellung</t>
+  </si>
+  <si>
+    <t>Datenbank-Verbindung/Deployment</t>
+  </si>
+  <si>
+    <t>View-Login</t>
+  </si>
+  <si>
+    <t>View-Register</t>
+  </si>
+  <si>
+    <t>Model-Datenbank-Operationen (laufend erweitert)</t>
+  </si>
+  <si>
+    <t>Model-DBConnector</t>
+  </si>
+  <si>
+    <t>Controller-Login</t>
+  </si>
+  <si>
+    <t>Controller-Register</t>
+  </si>
+  <si>
+    <t>Controller-Resets (4 zusammengefasst)</t>
+  </si>
+  <si>
+    <t>Controller-MailSender</t>
+  </si>
+  <si>
+    <t>Controller-Logout</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Server/Client-Beschreibung</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan (PSP)</t>
   </si>
 </sst>
 </file>
@@ -467,24 +515,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>9</v>
       </c>
@@ -498,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -524,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -542,17 +590,17 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -572,7 +620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -592,7 +640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -608,8 +656,11 @@
       <c r="G6" s="1">
         <v>43396</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -626,7 +677,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -643,7 +694,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -660,7 +711,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -677,7 +728,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -694,7 +745,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -711,7 +762,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -728,7 +779,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -745,7 +796,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -762,7 +813,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -779,7 +830,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -796,7 +847,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -807,13 +858,13 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <v>43417</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -824,40 +875,245 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <v>43434</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D46" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G46" s="1">
         <v>43385</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G47" s="1">
         <v>43426</v>
       </c>
     </row>

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43612744-2A4A-4B63-A541-B8F474C6DD98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3C12E-6388-4371-A2C1-C271265E355C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>Projektstrukturplan (PSP)</t>
+  </si>
+  <si>
+    <t>View-Benutzer</t>
+  </si>
+  <si>
+    <t>Controller-UserProfile</t>
+  </si>
+  <si>
+    <t>Model-Datenbank-Operationen</t>
+  </si>
+  <si>
+    <t>Controller-DeleteAccount</t>
+  </si>
+  <si>
+    <t>Controller-CreateAssignment</t>
   </si>
 </sst>
 </file>
@@ -517,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,11 +605,11 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1084,6 +1099,133 @@
       </c>
       <c r="G33" s="1">
         <v>43461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF3C12E-6388-4371-A2C1-C271265E355C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B581F9A-C755-49E7-9742-F4D421558307}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
@@ -1207,7 +1207,7 @@
         <v>47</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>43464</v>

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B581F9A-C755-49E7-9742-F4D421558307}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591012C3-F559-4541-BAAC-A096028EB9BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Controller-CreateAssignment</t>
+  </si>
+  <si>
+    <t>View-Administrator</t>
+  </si>
+  <si>
+    <t>Controller-AdminProfile</t>
+  </si>
+  <si>
+    <t>Controller-AdminAssignment</t>
+  </si>
+  <si>
+    <t>Controller-AdminControlAssignments</t>
+  </si>
+  <si>
+    <t>Controller-AdminControlShowcases</t>
   </si>
 </sst>
 </file>
@@ -530,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,11 +620,11 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1087,7 +1102,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1116,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -1213,49 +1228,179 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>22</v>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="G46" s="1">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <v>43385</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>26</v>
       </c>
-      <c r="E47">
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G59" s="1">
         <v>43426</v>
       </c>
     </row>

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591012C3-F559-4541-BAAC-A096028EB9BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BD229-9BFD-47BF-A561-0964630BC0F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
@@ -1350,12 +1350,29 @@
       <c r="B50" t="s">
         <v>31</v>
       </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>43468</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>43468</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BD229-9BFD-47BF-A561-0964630BC0F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B6C9D-3615-42AF-BD79-EFE1CCD168D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Controller-AdminControlShowcases</t>
+  </si>
+  <si>
+    <t>View-Main</t>
+  </si>
+  <si>
+    <t>Controller-Main</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,11 +626,11 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1378,11 +1384,28 @@
       <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>43479</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>43479</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Documents/Schule/Diplomarbeit/git_repo/maxxwell_webproject/Protokolle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B6C9D-3615-42AF-BD79-EFE1CCD168D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD981EDF-ED44-B74B-9EC8-77FFA54F1769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -199,6 +204,9 @@
   </si>
   <si>
     <t>Controller-Main</t>
+  </si>
+  <si>
+    <t>Controller-MainShowcases</t>
   </si>
 </sst>
 </file>
@@ -239,7 +247,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,24 +559,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>9</v>
       </c>
@@ -582,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -608,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -626,17 +634,17 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -656,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -676,7 +684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -696,7 +704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -713,7 +721,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -730,7 +738,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -747,7 +755,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -764,7 +772,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -781,7 +789,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -798,7 +806,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -815,7 +823,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -832,7 +840,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -849,7 +857,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -866,7 +874,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -883,7 +891,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -900,7 +908,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -917,7 +925,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -934,7 +942,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -951,7 +959,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -968,7 +976,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -982,7 +990,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>31</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>31</v>
       </c>
@@ -1408,39 +1416,93 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D67" t="s">
         <v>23</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <v>43385</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>26</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
         <v>43426</v>
       </c>
     </row>

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Documents/Schule/Diplomarbeit/git_repo/maxxwell_webproject/Protokolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD981EDF-ED44-B74B-9EC8-77FFA54F1769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A6C1C1-9BEB-4F95-834F-6467003C1147}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,22 +561,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>9</v>
       </c>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -664,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -704,7 +704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -721,7 +721,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -738,7 +738,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -755,7 +755,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -772,7 +772,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -789,7 +789,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -806,7 +806,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -823,7 +823,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -840,7 +840,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -857,7 +857,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -874,7 +874,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -891,7 +891,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -908,7 +908,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -942,7 +942,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -959,7 +959,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -976,7 +976,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -990,7 +990,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>43459</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>43460</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>43464</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>31</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>31</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>31</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>26</v>
       </c>

--- a/Protokolle/ArbeitsProtokoll.xlsx
+++ b/Protokolle/ArbeitsProtokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\maxxwell_webproject\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A6C1C1-9BEB-4F95-834F-6467003C1147}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F4FE1-D3EA-4E93-9F4C-8D03BCC61612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="15960" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA789707-4C3A-9940-BF61-CF9438299241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
   <si>
     <t>Arbeitspaket/Bezeichung</t>
   </si>
@@ -207,6 +202,30 @@
   </si>
   <si>
     <t>Controller-MainShowcases</t>
+  </si>
+  <si>
+    <t>Pl…Planung</t>
+  </si>
+  <si>
+    <t>Pl</t>
+  </si>
+  <si>
+    <t>Planung - GANTT Diagramm + Arbeitspakete</t>
+  </si>
+  <si>
+    <t>View-Kontakt</t>
+  </si>
+  <si>
+    <t>Gespräch mit Betreuer</t>
+  </si>
+  <si>
+    <t>DD…Diplomarbeit-Dokument</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Theoretische Grundlagen</t>
   </si>
 </sst>
 </file>
@@ -559,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A31150-A8ED-FE41-BD34-00B41D3ED644}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,11 +653,11 @@
       </c>
       <c r="H3">
         <f>SUM(E3:E343)</f>
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="I3">
         <f>SUM(F3:F343)</f>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -720,6 +739,9 @@
       <c r="G7" s="1">
         <v>43397</v>
       </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -737,6 +759,9 @@
       <c r="G8" s="1">
         <v>43397</v>
       </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -963,9 +988,6 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
@@ -978,30 +1000,36 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
       <c r="G23" s="1">
-        <v>43444</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
       </c>
       <c r="G24" s="1">
-        <v>43456</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1009,13 +1037,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>43457</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1023,13 +1051,13 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
       </c>
       <c r="G26" s="1">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1037,13 +1065,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27">
+        <v>34</v>
+      </c>
+      <c r="F27">
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>43458</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1051,13 +1079,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>43458</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1065,13 +1093,13 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>43459</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1079,13 +1107,13 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>43460</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1093,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>43460</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1107,13 +1135,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1">
-        <v>43461</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1121,13 +1149,13 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>43461</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1135,13 +1163,13 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>43462</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1149,13 +1177,13 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>43462</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1166,10 +1194,10 @@
         <v>46</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>43463</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1177,13 +1205,13 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>43463</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -1191,10 +1219,10 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
       </c>
       <c r="G38" s="1">
         <v>43463</v>
@@ -1205,10 +1233,10 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
         <v>43463</v>
@@ -1219,13 +1247,13 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>43464</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1233,13 +1261,13 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>43464</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1247,16 +1275,13 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>43465</v>
+        <v>43464</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -1264,13 +1289,13 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>43465</v>
+        <v>43464</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -1278,10 +1303,13 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
       </c>
       <c r="G44" s="1">
         <v>43465</v>
@@ -1292,13 +1320,13 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
-        <v>43466</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -1306,16 +1334,13 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="1">
-        <v>43466</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -1323,13 +1348,13 @@
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="G47" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -1337,13 +1362,16 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>43467</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -1351,10 +1379,10 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
         <v>43467</v>
@@ -1371,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>43468</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1382,10 +1410,10 @@
         <v>48</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G51" s="1">
-        <v>43468</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -1393,13 +1421,13 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1">
-        <v>43479</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -1407,13 +1435,13 @@
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>43479</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -1424,10 +1452,10 @@
         <v>57</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1">
-        <v>43487</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -1435,13 +1463,13 @@
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
       </c>
       <c r="G55" s="1">
-        <v>43488</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -1449,13 +1477,13 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>43488</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1463,47 +1491,224 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
         <v>3</v>
       </c>
       <c r="G57" s="1">
         <v>43488</v>
       </c>
     </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>43501</v>
+      </c>
+    </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D73" t="s">
         <v>23</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
         <v>43385</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>26</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
         <v>43426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>43124</v>
       </c>
     </row>
   </sheetData>
